--- a/deployable examples/bitlocker/src/bitllocker_dc_example.xlsx
+++ b/deployable examples/bitlocker/src/bitllocker_dc_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint-df.com/personal/joshbregman_microsoft_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshbregman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{9F6276F1-1965-4294-BC7F-08A6302F0E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183EAA35-6C51-4771-8E5E-BA772D40D9AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0093D3-2B39-41D6-A5F1-199075A946E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="16380" windowHeight="10260" firstSheet="2" activeTab="5" xr2:uid="{F17E21AF-5E05-4ECF-8E29-50A77CA88224}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>PrimaryId</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Print</t>
   </si>
 </sst>
 </file>
@@ -812,10 +815,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409B0504-EC05-4B1B-97F5-884FF44238AD}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -826,12 +829,12 @@
     <col min="4" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" customWidth="1"/>
     <col min="7" max="7" width="9.953125" customWidth="1"/>
-    <col min="8" max="8" width="11.04296875" customWidth="1"/>
-    <col min="9" max="9" width="12.953125" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" customWidth="1"/>
+    <col min="8" max="9" width="11.04296875" customWidth="1"/>
+    <col min="10" max="10" width="12.953125" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,10 +860,13 @@
         <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -885,11 +891,11 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -902,11 +908,11 @@
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -919,11 +925,11 @@
       <c r="F4" t="s">
         <v>45</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -942,11 +948,11 @@
       <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -965,7 +971,7 @@
       <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3</v>
       </c>
     </row>
